--- a/lte-frontend/public/tbkpi模板.xlsx
+++ b/lte-frontend/public/tbkpi模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16402\Documents\Tencent Files\1640237630\FileRecv\MobileFile\实验数据和指导书\xxx地区TD-LTE网络数据\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B610749C-16E7-4134-ABF8-09315FB1E595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308404A2-AE12-4DB3-AD34-A24ADB65F236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
-  <si>
-    <t>ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>起始时间</t>
   </si>
@@ -549,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP2"/>
+  <dimension ref="A1:AO2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -557,16 +554,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="120" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="32" width="10" customWidth="1"/>
-    <col min="33" max="34" width="12" customWidth="1"/>
-    <col min="35" max="42" width="10" customWidth="1"/>
+    <col min="1" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="120" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="31" width="10" customWidth="1"/>
+    <col min="32" max="33" width="12" customWidth="1"/>
+    <col min="34" max="41" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="174" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" ht="174" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -690,11 +686,11 @@
       <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>42</v>
       </c>
@@ -704,104 +700,104 @@
       <c r="D2" t="s">
         <v>44</v>
       </c>
-      <c r="E2" t="s">
-        <v>45</v>
+      <c r="E2">
+        <v>62324</v>
       </c>
       <c r="F2">
-        <v>62324</v>
+        <v>62447</v>
       </c>
       <c r="G2">
-        <v>62447</v>
+        <v>0.998</v>
       </c>
       <c r="H2">
-        <v>0.998</v>
+        <v>56116</v>
       </c>
       <c r="I2">
-        <v>56116</v>
+        <v>56138</v>
       </c>
       <c r="J2">
-        <v>56138</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="L2">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="M2">
+        <v>2E-3</v>
+      </c>
+      <c r="N2">
+        <v>0.999</v>
+      </c>
+      <c r="O2">
         <v>0</v>
       </c>
-      <c r="N2">
+      <c r="P2">
+        <v>107</v>
+      </c>
+      <c r="Q2">
+        <v>53424</v>
+      </c>
+      <c r="R2">
         <v>2E-3</v>
       </c>
-      <c r="O2">
-        <v>0.999</v>
-      </c>
-      <c r="P2">
+      <c r="S2">
         <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>107</v>
-      </c>
-      <c r="R2">
-        <v>53424</v>
-      </c>
-      <c r="S2">
-        <v>2E-3</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="V2">
         <v>102</v>
       </c>
       <c r="W2">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="X2">
         <v>69</v>
       </c>
       <c r="Y2">
-        <v>69</v>
+        <v>21974</v>
       </c>
       <c r="Z2">
-        <v>21974</v>
+        <v>22061</v>
       </c>
       <c r="AA2">
-        <v>22061</v>
+        <v>1</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="AC2">
         <v>0.995</v>
       </c>
       <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
         <v>0.995</v>
       </c>
-      <c r="AE2">
-        <v>1</v>
-      </c>
       <c r="AF2">
-        <v>0.995</v>
+        <v>4098010992</v>
       </c>
       <c r="AG2">
-        <v>4098010992</v>
+        <v>41817975160</v>
       </c>
       <c r="AH2">
-        <v>41817975160</v>
+        <v>414</v>
       </c>
       <c r="AI2">
-        <v>414</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AJ2">
-        <v>7.0000000000000001E-3</v>
+        <v>17</v>
       </c>
       <c r="AK2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -810,12 +806,9 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="AO2">
-        <v>102</v>
-      </c>
-      <c r="AP2">
         <v>102</v>
       </c>
     </row>
